--- a/Correlations/mediumSpearman.xlsx
+++ b/Correlations/mediumSpearman.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>keyword</t>
   </si>
@@ -31,160 +31,178 @@
     <t>MG_newDeaths</t>
   </si>
   <si>
+    <t>reabertura comercio</t>
+  </si>
+  <si>
+    <t>reabertura shopping</t>
+  </si>
+  <si>
+    <t>reabertura escolas</t>
+  </si>
+  <si>
+    <t>teste rapido de coronavírus</t>
+  </si>
+  <si>
+    <t>oximetro</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>covid pcr</t>
+  </si>
+  <si>
+    <t>pcr exame covid</t>
+  </si>
+  <si>
+    <t>pcr</t>
+  </si>
+  <si>
+    <t>decreto lockdown</t>
+  </si>
+  <si>
+    <t>estou com covid</t>
+  </si>
+  <si>
+    <t>peguei covid</t>
+  </si>
+  <si>
+    <t>febre</t>
+  </si>
+  <si>
+    <t>coronavírus no brasil</t>
+  </si>
+  <si>
+    <t>ministerio da saude</t>
+  </si>
+  <si>
+    <t>taxa de ocupação de leitos</t>
+  </si>
+  <si>
+    <t>teste rápido covid</t>
+  </si>
+  <si>
+    <t>teste igg</t>
+  </si>
+  <si>
+    <t>mortes corona</t>
+  </si>
+  <si>
+    <t>oms corona</t>
+  </si>
+  <si>
+    <t>álcool gel</t>
+  </si>
+  <si>
+    <t>álcool 70</t>
+  </si>
+  <si>
+    <t>medicamento coronavírus</t>
+  </si>
+  <si>
+    <t>medicamento corona</t>
+  </si>
+  <si>
+    <t>teste covid</t>
+  </si>
+  <si>
+    <t>teste coronavírus</t>
+  </si>
+  <si>
+    <t>tosse</t>
+  </si>
+  <si>
+    <t>sintomas coronavirus</t>
+  </si>
+  <si>
+    <t>ivermectina covid como tomar</t>
+  </si>
+  <si>
+    <t>pico brasil</t>
+  </si>
+  <si>
+    <t>pico coronavírus</t>
+  </si>
+  <si>
+    <t>brasil coronavírus</t>
+  </si>
+  <si>
+    <t>coronavírus brasil pico</t>
+  </si>
+  <si>
+    <t>coronavírus pico brasil</t>
+  </si>
+  <si>
+    <t>pico corona</t>
+  </si>
+  <si>
+    <t>corona grupo de risco</t>
+  </si>
+  <si>
+    <t>leitos uti brasil</t>
+  </si>
+  <si>
+    <t>máscara n95</t>
+  </si>
+  <si>
+    <t>máscara descartável</t>
+  </si>
+  <si>
+    <t>igg</t>
+  </si>
+  <si>
+    <t>igm</t>
+  </si>
+  <si>
+    <t>igg igm</t>
+  </si>
+  <si>
     <t>covid igg</t>
   </si>
   <si>
     <t>covid igm igg</t>
   </si>
   <si>
+    <t>exame igg</t>
+  </si>
+  <si>
+    <t>coronavírus quarentena</t>
+  </si>
+  <si>
+    <t>coronavírus idosos</t>
+  </si>
+  <si>
+    <t>coronavírus oms</t>
+  </si>
+  <si>
+    <t>oms coronavírus</t>
+  </si>
+  <si>
+    <t>oms brasil coronavírus</t>
+  </si>
+  <si>
+    <t>coronavírus imunidade</t>
+  </si>
+  <si>
+    <t>respirador mecanico</t>
+  </si>
+  <si>
+    <t>respirador</t>
+  </si>
+  <si>
+    <t>dor de garganta</t>
+  </si>
+  <si>
+    <t>exame cotonete</t>
+  </si>
+  <si>
+    <t>tomar ivermectina</t>
+  </si>
+  <si>
     <t>exame covid</t>
   </si>
   <si>
-    <t>exame igg</t>
-  </si>
-  <si>
-    <t>igg igm</t>
-  </si>
-  <si>
-    <t>igg</t>
-  </si>
-  <si>
-    <t>igm</t>
-  </si>
-  <si>
-    <t>ivermectina covid como tomar</t>
-  </si>
-  <si>
-    <t>para que que serve ivermectina</t>
-  </si>
-  <si>
-    <t>plano de reabertura</t>
-  </si>
-  <si>
-    <t>reabertura academias</t>
-  </si>
-  <si>
-    <t>reabertura escolas</t>
-  </si>
-  <si>
-    <t>reabertura shopping</t>
-  </si>
-  <si>
     <t>reagente igg</t>
-  </si>
-  <si>
-    <t>teste covid</t>
-  </si>
-  <si>
-    <t>teste igg</t>
-  </si>
-  <si>
-    <t>teste rápido covid</t>
-  </si>
-  <si>
-    <t>tomar ivermectina</t>
-  </si>
-  <si>
-    <t>covid pcr</t>
-  </si>
-  <si>
-    <t>estou com covid</t>
-  </si>
-  <si>
-    <t>exame cotonete</t>
-  </si>
-  <si>
-    <t>pcr exame covid</t>
-  </si>
-  <si>
-    <t>pcr</t>
-  </si>
-  <si>
-    <t>peguei covid</t>
-  </si>
-  <si>
-    <t>brasil coronavirus</t>
-  </si>
-  <si>
-    <t>corona grupo de risco</t>
-  </si>
-  <si>
-    <t>coronavirus no brasil</t>
-  </si>
-  <si>
-    <t>coronavirus oms</t>
-  </si>
-  <si>
-    <t>medicamento corona</t>
-  </si>
-  <si>
-    <t>medicamento coronavirus</t>
-  </si>
-  <si>
-    <t>oms corona</t>
-  </si>
-  <si>
-    <t>álcool 70</t>
-  </si>
-  <si>
-    <t>álcool gel</t>
-  </si>
-  <si>
-    <t>febre</t>
-  </si>
-  <si>
-    <t>tosse</t>
-  </si>
-  <si>
-    <t>casos novos coronavirus</t>
-  </si>
-  <si>
-    <t>coronavirus idosos</t>
-  </si>
-  <si>
-    <t>coronavirus imunidade</t>
-  </si>
-  <si>
-    <t>coronavirus quarentena</t>
-  </si>
-  <si>
-    <t>dor de garganta</t>
-  </si>
-  <si>
-    <t>leitos uti brasil</t>
-  </si>
-  <si>
-    <t>ministerio da saude</t>
-  </si>
-  <si>
-    <t>mortes corona</t>
-  </si>
-  <si>
-    <t>máscara descartável</t>
-  </si>
-  <si>
-    <t>máscara n95</t>
-  </si>
-  <si>
-    <t>oms brasil coronavirus</t>
-  </si>
-  <si>
-    <t>pico corona</t>
-  </si>
-  <si>
-    <t>respirador hospitalar</t>
-  </si>
-  <si>
-    <t>respirador mecanico</t>
-  </si>
-  <si>
-    <t>respirador</t>
-  </si>
-  <si>
-    <t>sintomas coronavirus</t>
-  </si>
-  <si>
-    <t>vacina corona</t>
   </si>
 </sst>
 </file>
@@ -542,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,10 +591,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.878742000442236</v>
-      </c>
-      <c r="D2">
-        <v>0.7409837101659369</v>
+        <v>0.5410279032331542</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -587,10 +602,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.871033739341847</v>
-      </c>
-      <c r="D3">
-        <v>0.7362521809313467</v>
+        <v>0.6621219850108133</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -601,13 +613,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.7119791458716518</v>
-      </c>
-      <c r="D4">
-        <v>0.8593585306505142</v>
-      </c>
-      <c r="E4">
-        <v>0.7479291151522643</v>
+        <v>0.6997480710751741</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -618,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.8000706780900345</v>
+        <v>0.585868109602798</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -629,10 +635,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.8730348981863357</v>
-      </c>
-      <c r="D6">
-        <v>0.7240431542722598</v>
+        <v>0.5881031926710265</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -643,10 +646,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.8818303800175032</v>
-      </c>
-      <c r="D7">
-        <v>0.74917170674512</v>
+        <v>0.5006347415728153</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -657,10 +657,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.9003139279461155</v>
-      </c>
-      <c r="D8">
-        <v>0.7456899410866701</v>
+        <v>0.5844180058725504</v>
+      </c>
+      <c r="F8">
+        <v>0.5844275039268546</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -671,10 +671,10 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.845849243632589</v>
-      </c>
-      <c r="D9">
-        <v>0.7957775428550856</v>
+        <v>0.6019890928692534</v>
+      </c>
+      <c r="F9">
+        <v>0.6567849052317277</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -685,7 +685,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.7173086203257535</v>
+        <v>0.6052549139284656</v>
+      </c>
+      <c r="F10">
+        <v>0.6670784283315848</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -696,7 +699,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.7424861598414459</v>
+        <v>0.6360316878370555</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -707,7 +710,10 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0.7559658816952974</v>
+        <v>0.6579449281943737</v>
+      </c>
+      <c r="E12">
+        <v>0.6365432545821372</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -718,7 +724,10 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.7261954708104643</v>
+        <v>0.6816659979672126</v>
+      </c>
+      <c r="F13">
+        <v>0.6413749437967033</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -728,8 +737,11 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
-        <v>0.7137743658147547</v>
+      <c r="D14">
+        <v>-0.5204727820886367</v>
+      </c>
+      <c r="E14">
+        <v>-0.6641040680504862</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -739,17 +751,14 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15">
-        <v>0.7953752379768579</v>
-      </c>
       <c r="D15">
-        <v>0.83875518007481</v>
+        <v>-0.5481748671481036</v>
       </c>
       <c r="E15">
-        <v>0.7762583001720091</v>
+        <v>-0.6924857097767528</v>
       </c>
       <c r="F15">
-        <v>0.7291521153830216</v>
+        <v>-0.6470189149802471</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -759,11 +768,14 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16">
-        <v>0.7537458364548152</v>
-      </c>
       <c r="D16">
-        <v>0.7736614491140981</v>
+        <v>-0.5597582214328947</v>
+      </c>
+      <c r="E16">
+        <v>-0.6957502478314564</v>
+      </c>
+      <c r="F16">
+        <v>-0.6452403588393268</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -773,8 +785,8 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17">
-        <v>0.8478460317990307</v>
+      <c r="D17">
+        <v>0.5964688143240882</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -784,8 +796,8 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18">
-        <v>0.7749648084439593</v>
+      <c r="D18">
+        <v>0.6201524044070241</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -795,14 +807,8 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
-        <v>0.8660719810898639</v>
-      </c>
       <c r="D19">
-        <v>0.8409102192791336</v>
-      </c>
-      <c r="E19">
-        <v>0.7120690989877491</v>
+        <v>0.6340277362477</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -813,10 +819,13 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>0.8863588848128726</v>
+        <v>-0.5283548259416021</v>
       </c>
       <c r="E20">
-        <v>0.8075716857450457</v>
+        <v>-0.6635859979449293</v>
+      </c>
+      <c r="F20">
+        <v>-0.6247949728432902</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -827,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>0.7430022762093478</v>
+        <v>-0.6065706654261432</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -838,13 +847,13 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>0.8651108413496054</v>
+        <v>-0.5818496783484663</v>
       </c>
       <c r="E22">
-        <v>0.8903854857263523</v>
+        <v>-0.6983307520119921</v>
       </c>
       <c r="F22">
-        <v>0.7633297254982299</v>
+        <v>-0.6938699973773165</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -855,10 +864,7 @@
         <v>26</v>
       </c>
       <c r="D23">
-        <v>0.8793006990879781</v>
-      </c>
-      <c r="E23">
-        <v>0.8060070405407536</v>
+        <v>-0.6300459277469465</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -869,10 +875,13 @@
         <v>27</v>
       </c>
       <c r="D24">
-        <v>0.907559021844549</v>
+        <v>-0.5322463163450158</v>
       </c>
       <c r="E24">
-        <v>0.8444100888233996</v>
+        <v>-0.6505220596301851</v>
+      </c>
+      <c r="F24">
+        <v>-0.6093253982597782</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -883,10 +892,7 @@
         <v>28</v>
       </c>
       <c r="D25">
-        <v>0.8197463251411996</v>
-      </c>
-      <c r="E25">
-        <v>0.7524949677173879</v>
+        <v>-0.5783872290466793</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -897,7 +903,7 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>-0.7121454871406987</v>
+        <v>0.6186716308546935</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -908,10 +914,10 @@
         <v>30</v>
       </c>
       <c r="E27">
-        <v>-0.7472459455723246</v>
+        <v>-0.5115036355418436</v>
       </c>
       <c r="F27">
-        <v>-0.7569340707161413</v>
+        <v>-0.5437209309855231</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -922,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="E28">
-        <v>-0.7119569106005142</v>
+        <v>-0.5797123425191882</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -933,7 +939,7 @@
         <v>32</v>
       </c>
       <c r="E29">
-        <v>-0.7144535483362131</v>
+        <v>-0.6575612014236544</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -944,10 +950,10 @@
         <v>33</v>
       </c>
       <c r="E30">
-        <v>-0.720708156800972</v>
+        <v>0.651538034628236</v>
       </c>
       <c r="F30">
-        <v>-0.7437737509543705</v>
+        <v>0.5575742512017</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -958,7 +964,7 @@
         <v>34</v>
       </c>
       <c r="E31">
-        <v>-0.7031682062064951</v>
+        <v>-0.5206594072721696</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -969,10 +975,7 @@
         <v>35</v>
       </c>
       <c r="E32">
-        <v>-0.7322919857358914</v>
-      </c>
-      <c r="F32">
-        <v>-0.7398555439957212</v>
+        <v>-0.5061291431008383</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -983,10 +986,10 @@
         <v>36</v>
       </c>
       <c r="E33">
-        <v>-0.7568797551641043</v>
+        <v>-0.6500685980652502</v>
       </c>
       <c r="F33">
-        <v>-0.759501318913578</v>
+        <v>-0.5995637481001683</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -997,7 +1000,10 @@
         <v>37</v>
       </c>
       <c r="E34">
-        <v>-0.7097269059286252</v>
+        <v>-0.5515835213760795</v>
+      </c>
+      <c r="F34">
+        <v>-0.5296711575521518</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1007,8 +1013,11 @@
       <c r="B35" t="s">
         <v>38</v>
       </c>
+      <c r="E35">
+        <v>-0.5515835213760795</v>
+      </c>
       <c r="F35">
-        <v>-0.7951054974980791</v>
+        <v>-0.5296711575521518</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1018,8 +1027,11 @@
       <c r="B36" t="s">
         <v>39</v>
       </c>
+      <c r="E36">
+        <v>-0.5137387578764975</v>
+      </c>
       <c r="F36">
-        <v>-0.7395607830381649</v>
+        <v>-0.5618329471787832</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1029,6 +1041,12 @@
       <c r="B37" t="s">
         <v>40</v>
       </c>
+      <c r="E37">
+        <v>-0.5810904045939116</v>
+      </c>
+      <c r="F37">
+        <v>-0.5889948687900587</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
@@ -1037,6 +1055,12 @@
       <c r="B38" t="s">
         <v>41</v>
       </c>
+      <c r="E38">
+        <v>-0.5196117308810991</v>
+      </c>
+      <c r="F38">
+        <v>-0.573959540188101</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
@@ -1045,6 +1069,12 @@
       <c r="B39" t="s">
         <v>42</v>
       </c>
+      <c r="E39">
+        <v>-0.5826930393282175</v>
+      </c>
+      <c r="F39">
+        <v>-0.615803630710012</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
@@ -1053,6 +1083,12 @@
       <c r="B40" t="s">
         <v>43</v>
       </c>
+      <c r="E40">
+        <v>-0.5759033019702267</v>
+      </c>
+      <c r="F40">
+        <v>-0.6438451327522168</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
@@ -1061,6 +1097,9 @@
       <c r="B41" t="s">
         <v>44</v>
       </c>
+      <c r="E41">
+        <v>0.5809379031725802</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
@@ -1069,6 +1108,9 @@
       <c r="B42" t="s">
         <v>45</v>
       </c>
+      <c r="E42">
+        <v>0.6073531272539124</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
@@ -1077,6 +1119,12 @@
       <c r="B43" t="s">
         <v>46</v>
       </c>
+      <c r="E43">
+        <v>0.5903755247221089</v>
+      </c>
+      <c r="F43">
+        <v>0.5006880868292281</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
@@ -1085,6 +1133,9 @@
       <c r="B44" t="s">
         <v>47</v>
       </c>
+      <c r="E44">
+        <v>0.571398530421381</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
@@ -1093,6 +1144,9 @@
       <c r="B45" t="s">
         <v>48</v>
       </c>
+      <c r="E45">
+        <v>0.5734232018632055</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
@@ -1101,6 +1155,9 @@
       <c r="B46" t="s">
         <v>49</v>
       </c>
+      <c r="E46">
+        <v>0.6087525316785209</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
@@ -1109,6 +1166,12 @@
       <c r="B47" t="s">
         <v>50</v>
       </c>
+      <c r="E47">
+        <v>-0.654865208061991</v>
+      </c>
+      <c r="F47">
+        <v>-0.6312004276824037</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
@@ -1117,45 +1180,147 @@
       <c r="B48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="E48">
+        <v>-0.5910193844118176</v>
+      </c>
+      <c r="F48">
+        <v>-0.613621007743175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="E49">
+        <v>-0.5648388009144159</v>
+      </c>
+      <c r="F49">
+        <v>-0.5130695531360026</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="E50">
+        <v>-0.5648388009144159</v>
+      </c>
+      <c r="F50">
+        <v>-0.5130695531360026</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="E51">
+        <v>-0.5003870462679144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="E52">
+        <v>-0.5107978788174282</v>
+      </c>
+      <c r="F52">
+        <v>-0.5067484612367316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
+      </c>
+      <c r="E53">
+        <v>-0.6265050702644759</v>
+      </c>
+      <c r="F53">
+        <v>-0.660703172827806</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54">
+        <v>-0.5156948738712612</v>
+      </c>
+      <c r="F54">
+        <v>-0.5152082519872652</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55">
+        <v>-0.5971462949045846</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56">
+        <v>0.6686192510512416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57">
+        <v>0.6318613438932613</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58">
+        <v>0.5562220533565535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59">
+        <v>0.6963656043963102</v>
       </c>
     </row>
   </sheetData>

--- a/Correlations/mediumSpearman.xlsx
+++ b/Correlations/mediumSpearman.xlsx
@@ -31,21 +31,24 @@
     <t>MG_newDeaths</t>
   </si>
   <si>
-    <t>reabertura comercio</t>
-  </si>
-  <si>
     <t>reabertura shopping</t>
   </si>
   <si>
+    <t>reabertura academias</t>
+  </si>
+  <si>
     <t>reabertura escolas</t>
   </si>
   <si>
-    <t>teste rapido de coronavírus</t>
-  </si>
-  <si>
     <t>oximetro</t>
   </si>
   <si>
+    <t>oximetro de dedo</t>
+  </si>
+  <si>
+    <t>ivermectina coronavírus</t>
+  </si>
+  <si>
     <t>covid</t>
   </si>
   <si>
@@ -70,9 +73,15 @@
     <t>febre</t>
   </si>
   <si>
+    <t>brasil coronavírus</t>
+  </si>
+  <si>
     <t>coronavírus no brasil</t>
   </si>
   <si>
+    <t>corona grupo de risco</t>
+  </si>
+  <si>
     <t>ministerio da saude</t>
   </si>
   <si>
@@ -85,124 +94,115 @@
     <t>teste igg</t>
   </si>
   <si>
+    <t>exame igg</t>
+  </si>
+  <si>
     <t>mortes corona</t>
   </si>
   <si>
+    <t>coronavírus oms</t>
+  </si>
+  <si>
     <t>oms corona</t>
   </si>
   <si>
+    <t>oms coronavírus</t>
+  </si>
+  <si>
     <t>álcool gel</t>
   </si>
   <si>
     <t>álcool 70</t>
   </si>
   <si>
+    <t>respirador mecanico</t>
+  </si>
+  <si>
+    <t>medicamento corona</t>
+  </si>
+  <si>
+    <t>teste covid</t>
+  </si>
+  <si>
+    <t>tosse</t>
+  </si>
+  <si>
+    <t>sintomas coronavirus</t>
+  </si>
+  <si>
+    <t>tomar ivermectina</t>
+  </si>
+  <si>
+    <t>pico corona</t>
+  </si>
+  <si>
+    <t>máscara n95</t>
+  </si>
+  <si>
+    <t>máscara descartável</t>
+  </si>
+  <si>
+    <t>igg</t>
+  </si>
+  <si>
+    <t>igm</t>
+  </si>
+  <si>
+    <t>igg igm</t>
+  </si>
+  <si>
+    <t>covid igg</t>
+  </si>
+  <si>
+    <t>covid igm igg</t>
+  </si>
+  <si>
+    <t>coronavírus quarentena</t>
+  </si>
+  <si>
+    <t>quarentena brasil</t>
+  </si>
+  <si>
+    <t>covid 19 oms</t>
+  </si>
+  <si>
+    <t>oms brasil coronavírus</t>
+  </si>
+  <si>
+    <t>coronavírus imunidade</t>
+  </si>
+  <si>
+    <t>respirador</t>
+  </si>
+  <si>
     <t>medicamento coronavírus</t>
   </si>
   <si>
-    <t>medicamento corona</t>
-  </si>
-  <si>
-    <t>teste covid</t>
+    <t>dor de garganta</t>
+  </si>
+  <si>
+    <t>exame cotonete</t>
   </si>
   <si>
     <t>teste coronavírus</t>
   </si>
   <si>
-    <t>tosse</t>
-  </si>
-  <si>
-    <t>sintomas coronavirus</t>
-  </si>
-  <si>
     <t>ivermectina covid como tomar</t>
   </si>
   <si>
-    <t>pico brasil</t>
-  </si>
-  <si>
-    <t>pico coronavírus</t>
-  </si>
-  <si>
-    <t>brasil coronavírus</t>
-  </si>
-  <si>
-    <t>coronavírus brasil pico</t>
-  </si>
-  <si>
-    <t>coronavírus pico brasil</t>
-  </si>
-  <si>
-    <t>pico corona</t>
-  </si>
-  <si>
-    <t>corona grupo de risco</t>
-  </si>
-  <si>
-    <t>leitos uti brasil</t>
-  </si>
-  <si>
-    <t>máscara n95</t>
-  </si>
-  <si>
-    <t>máscara descartável</t>
-  </si>
-  <si>
-    <t>igg</t>
-  </si>
-  <si>
-    <t>igm</t>
-  </si>
-  <si>
-    <t>igg igm</t>
-  </si>
-  <si>
-    <t>covid igg</t>
-  </si>
-  <si>
-    <t>covid igm igg</t>
-  </si>
-  <si>
-    <t>exame igg</t>
-  </si>
-  <si>
-    <t>coronavírus quarentena</t>
-  </si>
-  <si>
-    <t>coronavírus idosos</t>
-  </si>
-  <si>
-    <t>coronavírus oms</t>
-  </si>
-  <si>
-    <t>oms coronavírus</t>
-  </si>
-  <si>
-    <t>oms brasil coronavírus</t>
-  </si>
-  <si>
-    <t>coronavírus imunidade</t>
-  </si>
-  <si>
-    <t>respirador mecanico</t>
-  </si>
-  <si>
-    <t>respirador</t>
-  </si>
-  <si>
-    <t>dor de garganta</t>
-  </si>
-  <si>
-    <t>exame cotonete</t>
-  </si>
-  <si>
-    <t>tomar ivermectina</t>
+    <t>coronavírus grupo de risco</t>
+  </si>
+  <si>
+    <t>vacina corona</t>
   </si>
   <si>
     <t>exame covid</t>
   </si>
   <si>
     <t>reagente igg</t>
+  </si>
+  <si>
+    <t>respirador hospitalar</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.5410279032331542</v>
+        <v>0.6843937662750245</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -602,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.6621219850108133</v>
+        <v>0.6825796157480096</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -613,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.6997480710751741</v>
+        <v>0.6866396568106133</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -624,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.585868109602798</v>
+        <v>0.5744918018441746</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -635,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.5881031926710265</v>
+        <v>0.5631017583420228</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.5006347415728153</v>
+        <v>0.5536793810526284</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -657,10 +657,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.5844180058725504</v>
-      </c>
-      <c r="F8">
-        <v>0.5844275039268546</v>
+        <v>0.5154443338717717</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -671,10 +668,10 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.6019890928692534</v>
+        <v>0.585422678668393</v>
       </c>
       <c r="F9">
-        <v>0.6567849052317277</v>
+        <v>0.6389300840389701</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -685,10 +682,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.6052549139284656</v>
+        <v>0.6213586636848555</v>
       </c>
       <c r="F10">
-        <v>0.6670784283315848</v>
+        <v>0.6489958741777089</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -699,7 +696,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.6360316878370555</v>
+        <v>0.6122924582820127</v>
+      </c>
+      <c r="F11">
+        <v>0.6850871894141481</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -710,10 +710,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0.6579449281943737</v>
-      </c>
-      <c r="E12">
-        <v>0.6365432545821372</v>
+        <v>0.638803966281798</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -724,10 +721,13 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.6816659979672126</v>
-      </c>
-      <c r="F13">
-        <v>0.6413749437967033</v>
+        <v>0.6346744245229214</v>
+      </c>
+      <c r="D13">
+        <v>0.6981139703447465</v>
+      </c>
+      <c r="E13">
+        <v>0.5557749936627187</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -737,11 +737,11 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="D14">
-        <v>-0.5204727820886367</v>
-      </c>
-      <c r="E14">
-        <v>-0.6641040680504862</v>
+      <c r="C14">
+        <v>0.5891242098258881</v>
+      </c>
+      <c r="F14">
+        <v>0.5764232940728571</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -752,13 +752,10 @@
         <v>18</v>
       </c>
       <c r="D15">
-        <v>-0.5481748671481036</v>
+        <v>-0.5331219916139754</v>
       </c>
       <c r="E15">
-        <v>-0.6924857097767528</v>
-      </c>
-      <c r="F15">
-        <v>-0.6470189149802471</v>
+        <v>-0.6686306366285906</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -769,13 +766,13 @@
         <v>19</v>
       </c>
       <c r="D16">
-        <v>-0.5597582214328947</v>
+        <v>-0.5325766412243701</v>
       </c>
       <c r="E16">
-        <v>-0.6957502478314564</v>
+        <v>-0.6778293702356335</v>
       </c>
       <c r="F16">
-        <v>-0.6452403588393268</v>
+        <v>-0.6145569668541886</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -786,7 +783,13 @@
         <v>20</v>
       </c>
       <c r="D17">
-        <v>0.5964688143240882</v>
+        <v>-0.5475383839781843</v>
+      </c>
+      <c r="E17">
+        <v>-0.6975044606138195</v>
+      </c>
+      <c r="F17">
+        <v>-0.6385059533175508</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -797,7 +800,13 @@
         <v>21</v>
       </c>
       <c r="D18">
-        <v>0.6201524044070241</v>
+        <v>-0.5844662603638663</v>
+      </c>
+      <c r="E18">
+        <v>-0.6818408783946586</v>
+      </c>
+      <c r="F18">
+        <v>-0.6837977640347525</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -808,7 +817,10 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>0.6340277362477</v>
+        <v>-0.5730336781793793</v>
+      </c>
+      <c r="F19">
+        <v>-0.6572906881215554</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -819,13 +831,10 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>-0.5283548259416021</v>
-      </c>
-      <c r="E20">
-        <v>-0.6635859979449293</v>
+        <v>0.6134354751192254</v>
       </c>
       <c r="F20">
-        <v>-0.6247949728432902</v>
+        <v>0.5025116353919563</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -836,7 +845,10 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>-0.6065706654261432</v>
+        <v>0.6399211101609452</v>
+      </c>
+      <c r="E21">
+        <v>0.5048475763776782</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -847,13 +859,10 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>-0.5818496783484663</v>
+        <v>0.6909925168547132</v>
       </c>
       <c r="E22">
-        <v>-0.6983307520119921</v>
-      </c>
-      <c r="F22">
-        <v>-0.6938699973773165</v>
+        <v>0.5201312155230962</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -864,7 +873,7 @@
         <v>26</v>
       </c>
       <c r="D23">
-        <v>-0.6300459277469465</v>
+        <v>0.6049923399445443</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -875,13 +884,13 @@
         <v>27</v>
       </c>
       <c r="D24">
-        <v>-0.5322463163450158</v>
+        <v>-0.5492235398299186</v>
       </c>
       <c r="E24">
-        <v>-0.6505220596301851</v>
+        <v>-0.6897909803467545</v>
       </c>
       <c r="F24">
-        <v>-0.6093253982597782</v>
+        <v>-0.6471259579868259</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -892,7 +901,13 @@
         <v>28</v>
       </c>
       <c r="D25">
-        <v>-0.5783872290466793</v>
+        <v>-0.5076437718615632</v>
+      </c>
+      <c r="E25">
+        <v>-0.6101702646448129</v>
+      </c>
+      <c r="F25">
+        <v>-0.5619736088228765</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -902,8 +917,8 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="E26">
-        <v>0.6186716308546935</v>
+      <c r="D26">
+        <v>-0.5879917759284979</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -913,11 +928,14 @@
       <c r="B27" t="s">
         <v>30</v>
       </c>
+      <c r="D27">
+        <v>-0.5076437718615632</v>
+      </c>
       <c r="E27">
-        <v>-0.5115036355418436</v>
+        <v>-0.6101702646448129</v>
       </c>
       <c r="F27">
-        <v>-0.5437209309855231</v>
+        <v>-0.5619736088228765</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -927,8 +945,14 @@
       <c r="B28" t="s">
         <v>31</v>
       </c>
+      <c r="D28">
+        <v>-0.5614336830723569</v>
+      </c>
       <c r="E28">
-        <v>-0.5797123425191882</v>
+        <v>-0.6808175897129142</v>
+      </c>
+      <c r="F28">
+        <v>-0.672871239563938</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -938,8 +962,8 @@
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="E29">
-        <v>-0.6575612014236544</v>
+      <c r="D29">
+        <v>-0.5885393116760118</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -949,11 +973,14 @@
       <c r="B30" t="s">
         <v>33</v>
       </c>
+      <c r="D30">
+        <v>-0.557995069952795</v>
+      </c>
       <c r="E30">
-        <v>0.651538034628236</v>
+        <v>-0.6333132793984371</v>
       </c>
       <c r="F30">
-        <v>0.5575742512017</v>
+        <v>-0.5472225015598507</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -963,8 +990,8 @@
       <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="E31">
-        <v>-0.5206594072721696</v>
+      <c r="D31">
+        <v>-0.6267466041924911</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -975,7 +1002,7 @@
         <v>35</v>
       </c>
       <c r="E32">
-        <v>-0.5061291431008383</v>
+        <v>0.6153846704505471</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -986,10 +1013,10 @@
         <v>36</v>
       </c>
       <c r="E33">
-        <v>-0.6500685980652502</v>
+        <v>-0.5589999006602973</v>
       </c>
       <c r="F33">
-        <v>-0.5995637481001683</v>
+        <v>-0.6855960655591937</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1000,10 +1027,10 @@
         <v>37</v>
       </c>
       <c r="E34">
-        <v>-0.5515835213760795</v>
+        <v>-0.6522066767297013</v>
       </c>
       <c r="F34">
-        <v>-0.5296711575521518</v>
+        <v>-0.6950522024227365</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1014,10 +1041,10 @@
         <v>38</v>
       </c>
       <c r="E35">
-        <v>-0.5515835213760795</v>
+        <v>0.6744555319420698</v>
       </c>
       <c r="F35">
-        <v>-0.5296711575521518</v>
+        <v>0.5734724143898801</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1028,10 +1055,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>-0.5137387578764975</v>
+        <v>-0.5671498816763793</v>
       </c>
       <c r="F36">
-        <v>-0.5618329471787832</v>
+        <v>-0.5766634751667631</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1042,10 +1069,10 @@
         <v>40</v>
       </c>
       <c r="E37">
-        <v>-0.5810904045939116</v>
+        <v>-0.5480085643904264</v>
       </c>
       <c r="F37">
-        <v>-0.5889948687900587</v>
+        <v>-0.6374713944119883</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1056,10 +1083,10 @@
         <v>41</v>
       </c>
       <c r="E38">
-        <v>-0.5196117308810991</v>
+        <v>-0.5274680874427935</v>
       </c>
       <c r="F38">
-        <v>-0.573959540188101</v>
+        <v>-0.5819727646862813</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1070,10 +1097,7 @@
         <v>42</v>
       </c>
       <c r="E39">
-        <v>-0.5826930393282175</v>
-      </c>
-      <c r="F39">
-        <v>-0.615803630710012</v>
+        <v>0.5929138644916055</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1084,10 +1108,7 @@
         <v>43</v>
       </c>
       <c r="E40">
-        <v>-0.5759033019702267</v>
-      </c>
-      <c r="F40">
-        <v>-0.6438451327522168</v>
+        <v>0.5989424214441603</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1098,7 +1119,7 @@
         <v>44</v>
       </c>
       <c r="E41">
-        <v>0.5809379031725802</v>
+        <v>0.5747471120066769</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1109,7 +1130,7 @@
         <v>45</v>
       </c>
       <c r="E42">
-        <v>0.6073531272539124</v>
+        <v>0.5746413627680371</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1120,10 +1141,7 @@
         <v>46</v>
       </c>
       <c r="E43">
-        <v>0.5903755247221089</v>
-      </c>
-      <c r="F43">
-        <v>0.5006880868292281</v>
+        <v>0.5783184108169995</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1134,7 +1152,10 @@
         <v>47</v>
       </c>
       <c r="E44">
-        <v>0.571398530421381</v>
+        <v>-0.5752735762357104</v>
+      </c>
+      <c r="F44">
+        <v>-0.5633235210016591</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1145,7 +1166,7 @@
         <v>48</v>
       </c>
       <c r="E45">
-        <v>0.5734232018632055</v>
+        <v>-0.5036670157482387</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1156,7 +1177,7 @@
         <v>49</v>
       </c>
       <c r="E46">
-        <v>0.6087525316785209</v>
+        <v>-0.5051023846640987</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1167,10 +1188,10 @@
         <v>50</v>
       </c>
       <c r="E47">
-        <v>-0.654865208061991</v>
+        <v>-0.5148097968856272</v>
       </c>
       <c r="F47">
-        <v>-0.6312004276824037</v>
+        <v>-0.5419616172372991</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1181,10 +1202,10 @@
         <v>51</v>
       </c>
       <c r="E48">
-        <v>-0.5910193844118176</v>
+        <v>-0.566463536284767</v>
       </c>
       <c r="F48">
-        <v>-0.613621007743175</v>
+        <v>-0.5553794830693396</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1195,10 +1216,10 @@
         <v>52</v>
       </c>
       <c r="E49">
-        <v>-0.5648388009144159</v>
+        <v>-0.5964249241875299</v>
       </c>
       <c r="F49">
-        <v>-0.5130695531360026</v>
+        <v>-0.5439442563443259</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1209,10 +1230,10 @@
         <v>53</v>
       </c>
       <c r="E50">
-        <v>-0.5648388009144159</v>
+        <v>-0.5203046143040917</v>
       </c>
       <c r="F50">
-        <v>-0.5130695531360026</v>
+        <v>-0.5397565412264164</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1222,8 +1243,8 @@
       <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="E51">
-        <v>-0.5003870462679144</v>
+      <c r="F51">
+        <v>-0.553773984610456</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1233,11 +1254,8 @@
       <c r="B52" t="s">
         <v>55</v>
       </c>
-      <c r="E52">
-        <v>-0.5107978788174282</v>
-      </c>
       <c r="F52">
-        <v>-0.5067484612367316</v>
+        <v>0.6704883530278225</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1247,11 +1265,8 @@
       <c r="B53" t="s">
         <v>56</v>
       </c>
-      <c r="E53">
-        <v>-0.6265050702644759</v>
-      </c>
       <c r="F53">
-        <v>-0.660703172827806</v>
+        <v>-0.5063532414140993</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1261,11 +1276,8 @@
       <c r="B54" t="s">
         <v>57</v>
       </c>
-      <c r="E54">
-        <v>-0.5156948738712612</v>
-      </c>
       <c r="F54">
-        <v>-0.5152082519872652</v>
+        <v>0.5998381010958729</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1276,7 +1288,7 @@
         <v>58</v>
       </c>
       <c r="F55">
-        <v>-0.5971462949045846</v>
+        <v>-0.5193770984603348</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1287,7 +1299,7 @@
         <v>59</v>
       </c>
       <c r="F56">
-        <v>0.6686192510512416</v>
+        <v>-0.5730748275408113</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1298,7 +1310,7 @@
         <v>60</v>
       </c>
       <c r="F57">
-        <v>0.6318613438932613</v>
+        <v>0.548867454461316</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1309,7 +1321,7 @@
         <v>61</v>
       </c>
       <c r="F58">
-        <v>0.5562220533565535</v>
+        <v>0.6884460304254997</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1320,7 +1332,7 @@
         <v>62</v>
       </c>
       <c r="F59">
-        <v>0.6963656043963102</v>
+        <v>-0.5708894331659432</v>
       </c>
     </row>
   </sheetData>
